--- a/xls_sample.xlsx
+++ b/xls_sample.xlsx
@@ -19,22 +19,22 @@
     <t>id</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>235.0</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>424.0</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
   <si>
     <t>a</t>
@@ -374,7 +374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -382,35 +382,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/xls_sample.xlsx
+++ b/xls_sample.xlsx
@@ -6,7 +6,7 @@
     <s:workbookView activeTab="0"/>
   </s:bookViews>
   <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <s:sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
   </s:sheets>
   <s:definedNames/>
   <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
